--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\Team12SoloProject\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAF208B-253D-434C-A7B0-BBF8329A7F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EF5697-A840-4C08-9A84-2343EDAC94B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51810" yWindow="2070" windowWidth="19335" windowHeight="16080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57405" yWindow="1920" windowWidth="19335" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -731,7 +731,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC760A4F-E344-444D-9B20-4657346E05AF}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1451,7 +1451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26320459-E182-4282-B0CD-FC10DCCE71E9}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
